--- a/Mini-projet-trey_Buchser_Joye/data/power_profile.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/power_profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micael\git\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C999A3EA-0C38-4710-B0E5-CAC27C658E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837201B-9582-4E05-94E5-9853D4282EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
   </bookViews>
   <sheets>
     <sheet name="load" sheetId="5" r:id="rId1"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB91AA0C-6E10-4C2C-B831-A2E20673E5F8}">
   <dimension ref="A1:BT98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AY8" sqref="AY8"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17178,11 +17178,14 @@
     <protectedRange sqref="B3:AP98" name="Plage1_1_1"/>
   </protectedRanges>
   <mergeCells count="25">
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -17195,14 +17198,11 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17210,10 +17210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0724F9-1790-4ECA-B4EA-D773CFA5B42B}">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17424,124 +17424,2796 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.125</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>0.16666666666666699</v>
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0.20833333333333301</v>
+        <v>5.2083333333333301E-2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0.25</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>0.29166666666666702</v>
+        <v>7.2916666666666699E-2</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>0.33333333333333298</v>
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>0.375</v>
+        <v>9.375E-2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>0.41666666666666702</v>
+        <v>0.104166666666667</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>0.45833333333333298</v>
+        <v>0.114583333333333</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>0.5</v>
+        <v>0.125</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>0.13541666666666699</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0.17708333333333301</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.19791666666666699</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.51365527499999553</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1.0273105499999919</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1.540965824999988</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.45819869999999602</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2.054621099999983</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.91639739999999326</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>0.23958333333333301</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3.8854799874999739</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1.3745960999999891</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>5.7163388750000026</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1.832794799999985</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>0.26041666666666702</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>7.5471977625000353</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3.5308524499999758</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>9.378056650000083</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>5.228910100000002</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>0.28125</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>11.908692881250071</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>6.9269677500000331</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>14.439329112500049</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>8.6250254000000819</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>0.30208333333333298</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>16.969965343750019</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>11.18826172500007</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>19.500601575000001</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>13.75149805000005</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="B34">
+        <v>3.5768706249999768E-2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>21.867990731249989</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>16.314734375000022</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B35">
+        <v>7.1537412499999342E-2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>24.23537988749996</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>18.877970699999999</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="B36">
+        <v>0.1073061187499991</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>26.602769043749941</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>21.176808593749989</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="B37">
+        <v>0.14307482499999891</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>28.970158199999918</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>23.475646487499962</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>0.36458333333333298</v>
+      </c>
+      <c r="B38">
+        <v>1.7389414937499701</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>31.13125341874996</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0.5244137562499902</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>25.774484381249941</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B39">
+        <v>3.3348081624999999</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>33.292348637499998</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1.0488275124999999</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>28.073322274999921</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="B40">
+        <v>4.9306748312500286</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>35.45344385625004</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1.5732412687500099</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>30.06023389374996</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B41">
+        <v>6.5265415000000413</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>37.614539075000039</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2.097655025000015</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>32.047145512500002</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="B42">
+        <v>7.8181661375000333</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>38.703405281250028</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2.5890765937500122</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>34.034057131250037</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B43">
+        <v>9.1097907750000253</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>39.792271487500017</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>3.080498162500009</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>36.020968750000058</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="B44">
+        <v>10.401415412500009</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>40.881137693750013</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>3.5719197312500031</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>37.718104493750047</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="B45">
+        <v>11.69304005</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>41.970003900000002</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>4.0633413000000003</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>39.415240237500029</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="B46">
+        <v>13.406195074999991</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>42.486155268749997</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>4.2947477937499992</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>41.112375981250011</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B47">
+        <v>15.11935009999997</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>43.002306637499991</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>4.5261542874999963</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>42.809511725</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="B48">
+        <v>16.832505124999951</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>43.518458006249993</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>4.7575607812499943</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>43.62370215624999</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B49">
+        <v>18.54566014999995</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>44.034609374999988</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>4.9889672749999932</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>44.437892587499981</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="B50">
+        <v>17.983342525000008</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>44.652867187499993</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>5.0990180562499976</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>45.252083018749978</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B51">
+        <v>17.421024899999999</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>45.271124999999998</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>5.2090688375000003</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>46.066273449999969</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="B52">
+        <v>16.85870727499999</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>45.88938281250001</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>5.3191196187500012</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>46.192474618749998</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B53">
+        <v>16.296389649999941</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>46.507640624999993</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>5.4291703999999967</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>46.318675787499998</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="B54">
+        <v>14.374237549999959</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>46.112312499999987</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>5.3179660562499977</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>46.444876956249999</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B55">
+        <v>12.452085449999981</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>45.716984375000003</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>5.2067617124999996</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>46.571078124999993</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="B56">
+        <v>10.529933349999981</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>45.321656249999997</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>5.0955573687499998</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>46.101112306249988</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="B57">
+        <v>8.6077812500000004</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>44.926328124999998</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>4.9843530250000008</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>45.63114648749999</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B58">
+        <v>8.7527277812499982</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>43.689188475000023</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>4.7139557500000038</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>45.161180668749992</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>0.58333333333333304</v>
       </c>
+      <c r="B59">
+        <v>8.8976743124999995</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>42.452048825000013</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>4.4435584750000032</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>44.691214849999987</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="B60">
+        <v>9.0426208437499973</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>41.214909175000031</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>4.1731612000000062</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>44.153650393750013</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B61">
+        <v>9.1875673749999951</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>39.977769525000042</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>3.9027639250000088</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>43.616085937500003</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="B62">
+        <v>8.3259988937500093</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>39.41670019375001</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>3.4441038250000049</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>43.078521481250007</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>0.625</v>
       </c>
+      <c r="B63">
+        <v>7.4644304125000014</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>38.855630862500007</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2.9854437250000001</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>42.540957025000019</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="B64">
+        <v>6.6028619312499908</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>38.294561531249997</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2.5267836249999949</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>40.609186518750022</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B65">
+        <v>5.7412934499999571</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>37.733492199999937</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2.068123524999983</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>38.677416012499997</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="B66">
+        <v>4.4188910687499714</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>35.91802246874996</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1.551092643749989</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>36.745645506249993</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>0.66666666666666696</v>
       </c>
+      <c r="B67">
+        <v>3.0964886874999862</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>34.102552737499977</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1.0340617624999939</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>34.813874999999953</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="B68">
+        <v>1.7740863062499861</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>32.287083006249979</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.51703088124999441</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>33.040834962499957</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="B69">
+        <v>0.45168392499999999</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>30.471613274999999</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>31.267794924999979</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="B70">
+        <v>0.33876294375000121</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>27.977577631250028</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>29.49475488749998</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>0.70833333333333304</v>
       </c>
+      <c r="B71">
+        <v>0.22584196250000119</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>25.483541987500029</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>27.721714850000001</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="B72">
+        <v>0.1129209812500024</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>22.989506343750051</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>25.484246587500021</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B73">
+        <v>3.6082248300317588E-15</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>20.49547070000008</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>23.246778325000019</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>18.08856908750003</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>21.009310062500049</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>0.75</v>
       </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>15.681667474999999</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>18.771841800000072</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>0.76041666666666696</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>13.274765862499979</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>16.321886231250019</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>10.86786424999994</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>13.871930662500001</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>9.0340941687499612</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>11.421975093749969</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>0.79166666666666696</v>
       </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>7.2003240874999808</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>8.9720195249999506</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>5.3665540062499808</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>7.4409991437499681</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>3.5327839249999999</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>5.9099787624999838</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>0.82291666666666696</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>2.6495879437500101</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>4.3789583812499844</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>0.83333333333333304</v>
       </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1.76639196250001</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>2.8479380000000001</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0.88319598125001875</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>2.1359535000000069</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>2.7977620220553939E-14</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1.423969000000008</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>0.86458333333333304</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0.71198450000001534</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>0.875</v>
       </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>2.3092638912203259E-14</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>0.88541666666666696</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>0.91666666666666696</v>
       </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>0.94791666666666696</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>0.95833333333333304</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>0.96875</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>0.98958333333333304</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -17554,14 +20226,6 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Mini-projet-trey_Buchser_Joye/data/power_profile.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/power_profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micael\git\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046119D7-4AAA-4B54-AF48-84AFFD28D05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D848F-AE1F-479C-948E-9A04A4542E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
   </bookViews>
@@ -90,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -109,7 +109,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17213,8 +17212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0724F9-1790-4ECA-B4EA-D773CFA5B42B}">
   <dimension ref="A1:AM98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17425,28 +17424,28 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
@@ -17454,28 +17453,28 @@
       <c r="A4" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
@@ -17483,28 +17482,28 @@
       <c r="A5" s="1">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
@@ -17512,28 +17511,28 @@
       <c r="A6" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
@@ -17541,28 +17540,28 @@
       <c r="A7" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
@@ -17570,28 +17569,28 @@
       <c r="A8" s="1">
         <v>5.2083333333333301E-2</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
@@ -17599,28 +17598,28 @@
       <c r="A9" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -17628,28 +17627,28 @@
       <c r="A10" s="1">
         <v>7.2916666666666699E-2</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
@@ -17657,28 +17656,28 @@
       <c r="A11" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
@@ -17686,28 +17685,28 @@
       <c r="A12" s="1">
         <v>9.375E-2</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
@@ -17715,28 +17714,28 @@
       <c r="A13" s="1">
         <v>0.104166666666667</v>
       </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -17744,28 +17743,28 @@
       <c r="A14" s="1">
         <v>0.114583333333333</v>
       </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
@@ -17773,28 +17772,28 @@
       <c r="A15" s="1">
         <v>0.125</v>
       </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
@@ -17802,28 +17801,28 @@
       <c r="A16" s="1">
         <v>0.13541666666666699</v>
       </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
@@ -17831,28 +17830,28 @@
       <c r="A17" s="1">
         <v>0.14583333333333301</v>
       </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
@@ -17860,28 +17859,28 @@
       <c r="A18" s="1">
         <v>0.15625</v>
       </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
@@ -17889,28 +17888,28 @@
       <c r="A19" s="1">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
@@ -17918,28 +17917,28 @@
       <c r="A20" s="1">
         <v>0.17708333333333301</v>
       </c>
-      <c r="B20" s="8">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
@@ -17947,28 +17946,28 @@
       <c r="A21" s="1">
         <v>0.1875</v>
       </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
     </row>
@@ -17976,28 +17975,28 @@
       <c r="A22" s="1">
         <v>0.19791666666666699</v>
       </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1.284138187499989E-3</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2.0546210999999818E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
     </row>
@@ -18005,28 +18004,28 @@
       <c r="A23" s="1">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2.5682763749999811E-3</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4.1092421999999696E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
     </row>
@@ -18034,28 +18033,28 @@
       <c r="A24" s="1">
         <v>0.21875</v>
       </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>3.85241456249997E-3</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1.14549674999999E-3</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>6.1638632999999514E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1.832794799999984E-3</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
     </row>
@@ -18063,28 +18062,28 @@
       <c r="A25" s="1">
         <v>0.22916666666666699</v>
       </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>5.1365527499999588E-3</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>2.2909934999999831E-3</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>8.2184843999999341E-3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3.6655895999999728E-3</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
     </row>
@@ -18092,28 +18091,28 @@
       <c r="A26" s="1">
         <v>0.23958333333333301</v>
       </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>9.7136999687499354E-3</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <v>3.4364902499999729E-3</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1.5541919949999899E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>5.4983843999999562E-3</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
     </row>
@@ -18121,28 +18120,28 @@
       <c r="A27" s="1">
         <v>0.25</v>
       </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1.4290847187500009E-2</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>4.5819869999999627E-3</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2.2865355500000011E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>7.3311791999999404E-3</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
@@ -18150,28 +18149,28 @@
       <c r="A28" s="1">
         <v>0.26041666666666702</v>
       </c>
-      <c r="B28" s="8">
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1.8867994406250092E-2</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>8.8271311249999412E-3</v>
-      </c>
-      <c r="I28" s="8">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3.0188791050000139E-2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1.41234097999999E-2</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
     </row>
@@ -18179,28 +18178,28 @@
       <c r="A29" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2.3445141625000211E-2</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1.3072275249999999E-2</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3.751222660000033E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2.0915640400000012E-2</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
     </row>
@@ -18208,28 +18207,28 @@
       <c r="A30" s="1">
         <v>0.28125</v>
       </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>2.9771732203125161E-2</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1.731741937500008E-2</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4.7634771525000258E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2.770787100000013E-2</v>
+      </c>
+      <c r="I30">
         <v>0</v>
       </c>
     </row>
@@ -18237,28 +18236,28 @@
       <c r="A31" s="1">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>3.6098322781250122E-2</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>2.1562563500000201E-2</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>5.7757316450000193E-2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3.4500101600000332E-2</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
     </row>
@@ -18266,28 +18265,28 @@
       <c r="A32" s="1">
         <v>0.30208333333333298</v>
       </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
-        <v>4.2424913359375052E-2</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>2.7970654312500169E-2</v>
-      </c>
-      <c r="I32" s="8">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>6.7879861375000072E-2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>4.475304690000026E-2</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
     </row>
@@ -18295,28 +18294,28 @@
       <c r="A33" s="1">
         <v>0.3125</v>
       </c>
-      <c r="B33" s="8">
-        <v>0</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0</v>
-      </c>
-      <c r="D33" s="8">
-        <v>4.8751503937500003E-2</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>3.4378745125000117E-2</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>7.8002406299999993E-2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>5.5005992200000187E-2</v>
+      </c>
+      <c r="I33">
         <v>0</v>
       </c>
     </row>
@@ -18324,28 +18323,28 @@
       <c r="A34" s="1">
         <v>0.32291666666666702</v>
       </c>
-      <c r="B34" s="8">
-        <v>8.9421765624999417E-5</v>
-      </c>
-      <c r="C34" s="8">
-        <v>0</v>
-      </c>
-      <c r="D34" s="8">
-        <v>5.4669976828124973E-2</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
-        <v>4.0786835937500043E-2</v>
-      </c>
-      <c r="I34" s="8">
+      <c r="B34">
+        <v>1.4307482499999909E-4</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>8.7471962924999938E-2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>6.5258937500000072E-2</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
     </row>
@@ -18353,28 +18352,28 @@
       <c r="A35" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B35" s="8">
-        <v>1.7884353124999829E-4</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0</v>
-      </c>
-      <c r="D35" s="8">
-        <v>6.0588449718749889E-2</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <v>4.7194926749999998E-2</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="B35">
+        <v>2.8614964999999738E-4</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>9.6941519549999813E-2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>7.5511882799999999E-2</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
     </row>
@@ -18382,28 +18381,28 @@
       <c r="A36" s="1">
         <v>0.34375</v>
       </c>
-      <c r="B36" s="8">
-        <v>2.6826529687499779E-4</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8">
-        <v>6.6506922609374852E-2</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>5.2942021484374963E-2</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="B36">
+        <v>4.2922447499999639E-4</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.1064110761749998</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>8.470723437499994E-2</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
     </row>
@@ -18411,28 +18410,28 @@
       <c r="A37" s="1">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B37" s="8">
-        <v>3.5768706249999718E-4</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>7.2425395499999809E-2</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>5.8689116218749893E-2</v>
-      </c>
-      <c r="I37" s="8">
+      <c r="B37">
+        <v>5.722992999999954E-4</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.1158806327999997</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>9.3902585949999826E-2</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
     </row>
@@ -18440,28 +18439,28 @@
       <c r="A38" s="1">
         <v>0.36458333333333298</v>
       </c>
-      <c r="B38" s="8">
-        <v>4.3473537343749246E-3</v>
-      </c>
-      <c r="C38" s="8">
-        <v>0</v>
-      </c>
-      <c r="D38" s="8">
-        <v>7.78281335468749E-2</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>1.3110343906249751E-3</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <v>6.4436210953124851E-2</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="B38">
+        <v>6.9557659749998812E-3</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.1245250136749998</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2.0976550249999608E-3</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.10309793752499979</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
     </row>
@@ -18469,28 +18468,28 @@
       <c r="A39" s="1">
         <v>0.375</v>
       </c>
-      <c r="B39" s="8">
-        <v>8.3370204062499995E-3</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0</v>
-      </c>
-      <c r="D39" s="8">
-        <v>8.3230871593749992E-2</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>2.62206878125E-3</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>7.0183305687499808E-2</v>
-      </c>
-      <c r="I39" s="8">
+      <c r="B39">
+        <v>1.3339232649999999E-2</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0.13316939454999999</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>4.1953100499999996E-3</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.11229328909999969</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
     </row>
@@ -18498,28 +18497,28 @@
       <c r="A40" s="1">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B40" s="8">
-        <v>1.232668707812507E-2</v>
-      </c>
-      <c r="C40" s="8">
-        <v>0</v>
-      </c>
-      <c r="D40" s="8">
-        <v>8.8633609640625097E-2</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>3.9331031718750249E-3</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8">
-        <v>7.5150584734374914E-2</v>
-      </c>
-      <c r="I40" s="8">
+      <c r="B40">
+        <v>1.972269932500012E-2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.14181377542500009</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>6.2929650750000402E-3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.1202409355749998</v>
+      </c>
+      <c r="I40">
         <v>0</v>
       </c>
     </row>
@@ -18527,28 +18526,28 @@
       <c r="A41" s="1">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B41" s="8">
-        <v>1.6316353750000099E-2</v>
-      </c>
-      <c r="C41" s="8">
-        <v>0</v>
-      </c>
-      <c r="D41" s="8">
-        <v>9.4036347687500091E-2</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>5.244137562500039E-3</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>8.0117863781250007E-2</v>
-      </c>
-      <c r="I41" s="8">
+      <c r="B41">
+        <v>2.610616600000016E-2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0.15045815630000009</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>8.3906201000000617E-3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.12818858205</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
     </row>
@@ -18556,28 +18555,28 @@
       <c r="A42" s="1">
         <v>0.40625</v>
       </c>
-      <c r="B42" s="8">
-        <v>1.954541534375008E-2</v>
-      </c>
-      <c r="C42" s="8">
-        <v>0</v>
-      </c>
-      <c r="D42" s="8">
-        <v>9.6758513203125063E-2</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>6.4726914843750306E-3</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>8.5085142828125099E-2</v>
-      </c>
-      <c r="I42" s="8">
+      <c r="B42">
+        <v>3.1272664550000127E-2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0.15481362112500011</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1.0356306375000049E-2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.13613622852500021</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
     </row>
@@ -18585,28 +18584,28 @@
       <c r="A43" s="1">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B43" s="8">
-        <v>2.2774476937500059E-2</v>
-      </c>
-      <c r="C43" s="8">
-        <v>0</v>
-      </c>
-      <c r="D43" s="8">
-        <v>9.9480678718750062E-2</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>7.7012454062500239E-3</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>9.0052421875000149E-2</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="B43">
+        <v>3.6439163100000102E-2</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.15916908595000009</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1.232199265000004E-2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.14408387500000019</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
     </row>
@@ -18614,28 +18613,28 @@
       <c r="A44" s="1">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B44" s="8">
-        <v>2.6003538531250019E-2</v>
-      </c>
-      <c r="C44" s="8">
-        <v>0</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0.10220284423437501</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>8.9297993281250085E-3</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>9.4295261234375122E-2</v>
-      </c>
-      <c r="I44" s="8">
+      <c r="B44">
+        <v>4.1605661650000042E-2</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0.163524550775</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1.428767892500001E-2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.1508724179750002</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
     </row>
@@ -18643,28 +18642,28 @@
       <c r="A45" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B45" s="8">
-        <v>2.9232600125000001E-2</v>
-      </c>
-      <c r="C45" s="8">
-        <v>0</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0.10492500975000001</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>1.015835325E-2</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8">
-        <v>9.8538100593750066E-2</v>
-      </c>
-      <c r="I45" s="8">
+      <c r="B45">
+        <v>4.6772160200000003E-2</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0.16788001559999999</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1.6253365200000001E-2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.1576609609500001</v>
+      </c>
+      <c r="I45">
         <v>0</v>
       </c>
     </row>
@@ -18672,28 +18671,28 @@
       <c r="A46" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B46" s="8">
-        <v>3.351548768749997E-2</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0</v>
-      </c>
-      <c r="D46" s="8">
-        <v>0.10621538817187499</v>
-      </c>
-      <c r="E46" s="8">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8">
-        <v>1.0736869484375E-2</v>
-      </c>
-      <c r="G46" s="8">
-        <v>0</v>
-      </c>
-      <c r="H46" s="8">
-        <v>0.102780939953125</v>
-      </c>
-      <c r="I46" s="8">
+      <c r="B46">
+        <v>5.3624780299999952E-2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0.169944621075</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1.7178991174999991E-2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.16444950392499999</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
     </row>
@@ -18701,28 +18700,28 @@
       <c r="A47" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B47" s="8">
-        <v>3.7798375249999919E-2</v>
-      </c>
-      <c r="C47" s="8">
-        <v>0</v>
-      </c>
-      <c r="D47" s="8">
-        <v>0.10750576659375</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>1.1315385718749991E-2</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0</v>
-      </c>
-      <c r="H47" s="8">
-        <v>0.1070237793125</v>
-      </c>
-      <c r="I47" s="8">
+      <c r="B47">
+        <v>6.0477400399999867E-2</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0.17200922654999989</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1.8104617149999981E-2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.1712380469</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
     </row>
@@ -18730,28 +18729,28 @@
       <c r="A48" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B48" s="8">
-        <v>4.2081262812499888E-2</v>
-      </c>
-      <c r="C48" s="8">
-        <v>0</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0.108796145015625</v>
-      </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>1.1893901953124991E-2</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0.109059255390625</v>
-      </c>
-      <c r="I48" s="8">
+      <c r="B48">
+        <v>6.7330020499999824E-2</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0.17407383202500001</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1.9030243124999971E-2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.174494808625</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
     </row>
@@ -18759,28 +18758,28 @@
       <c r="A49" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B49" s="8">
-        <v>4.6364150374999857E-2</v>
-      </c>
-      <c r="C49" s="8">
-        <v>0</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0.1100865234375</v>
-      </c>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>1.247241818749998E-2</v>
-      </c>
-      <c r="G49" s="8">
-        <v>0</v>
-      </c>
-      <c r="H49" s="8">
-        <v>0.11109473146875</v>
-      </c>
-      <c r="I49" s="8">
+      <c r="B49">
+        <v>7.418264059999978E-2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.17613843749999991</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1.9955869099999971E-2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.17775157034999989</v>
+      </c>
+      <c r="I49">
         <v>0</v>
       </c>
     </row>
@@ -18788,28 +18787,28 @@
       <c r="A50" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B50" s="8">
-        <v>4.4958356312500031E-2</v>
-      </c>
-      <c r="C50" s="8">
-        <v>0</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0.11163216796875</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>1.2747545140625E-2</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0.1131302075468749</v>
-      </c>
-      <c r="I50" s="8">
+      <c r="B50">
+        <v>7.1933370100000046E-2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0.17861146875</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2.0396072224999989E-2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.18100833207499989</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
     </row>
@@ -18817,28 +18816,28 @@
       <c r="A51" s="1">
         <v>0.5</v>
       </c>
-      <c r="B51" s="8">
-        <v>4.3552562250000003E-2</v>
-      </c>
-      <c r="C51" s="8">
-        <v>0</v>
-      </c>
-      <c r="D51" s="8">
-        <v>0.1131778125</v>
-      </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>1.302267209375E-2</v>
-      </c>
-      <c r="G51" s="8">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8">
-        <v>0.1151656836249999</v>
-      </c>
-      <c r="I51" s="8">
+      <c r="B51">
+        <v>6.9684099599999993E-2</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0.18108450000000001</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2.0836275349999999E-2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.18426509379999989</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
     </row>
@@ -18846,28 +18845,28 @@
       <c r="A52" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B52" s="8">
-        <v>4.2146768187499982E-2</v>
-      </c>
-      <c r="C52" s="8">
-        <v>0</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0.11472345703125</v>
-      </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8">
-        <v>1.3297799046874999E-2</v>
-      </c>
-      <c r="G52" s="8">
-        <v>0</v>
-      </c>
-      <c r="H52" s="8">
-        <v>0.115481186546875</v>
-      </c>
-      <c r="I52" s="8">
+      <c r="B52">
+        <v>6.7434829099999968E-2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0.18355753124999999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2.1276478474999999E-2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.184769898475</v>
+      </c>
+      <c r="I52">
         <v>0</v>
       </c>
     </row>
@@ -18875,28 +18874,28 @@
       <c r="A53" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B53" s="8">
-        <v>4.0740974124999843E-2</v>
-      </c>
-      <c r="C53" s="8">
-        <v>0</v>
-      </c>
-      <c r="D53" s="8">
-        <v>0.1162691015625</v>
-      </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>1.357292599999999E-2</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="8">
-        <v>0.11579668946875001</v>
-      </c>
-      <c r="I53" s="8">
+      <c r="B53">
+        <v>6.5185558599999749E-2</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0.18603056249999991</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>2.1716681599999989E-2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.18527470315</v>
+      </c>
+      <c r="I53">
         <v>0</v>
       </c>
     </row>
@@ -18904,28 +18903,28 @@
       <c r="A54" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B54" s="8">
-        <v>3.5935593874999887E-2</v>
-      </c>
-      <c r="C54" s="8">
-        <v>0</v>
-      </c>
-      <c r="D54" s="8">
-        <v>0.11528078125000001</v>
-      </c>
-      <c r="E54" s="8">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8">
-        <v>1.3294915140625E-2</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0</v>
-      </c>
-      <c r="H54" s="8">
-        <v>0.11611219239062499</v>
-      </c>
-      <c r="I54" s="8">
+      <c r="B54">
+        <v>5.7496950199999827E-2</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0.18444925000000001</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2.1271864224999989E-2</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.185779507825</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
     </row>
@@ -18933,28 +18932,28 @@
       <c r="A55" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B55" s="8">
-        <v>3.1130213624999951E-2</v>
-      </c>
-      <c r="C55" s="8">
-        <v>0</v>
-      </c>
-      <c r="D55" s="8">
-        <v>0.11429246093750001</v>
-      </c>
-      <c r="E55" s="8">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
-        <v>1.301690428125E-2</v>
-      </c>
-      <c r="G55" s="8">
-        <v>0</v>
-      </c>
-      <c r="H55" s="8">
-        <v>0.1164276953125</v>
-      </c>
-      <c r="I55" s="8">
+      <c r="B55">
+        <v>4.9808341799999913E-2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0.18286793749999999</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2.0827046849999999E-2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.18628431249999991</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
     </row>
@@ -18962,28 +18961,28 @@
       <c r="A56" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B56" s="8">
-        <v>2.632483337499995E-2</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0</v>
-      </c>
-      <c r="D56" s="8">
-        <v>0.11330414062499999</v>
-      </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>1.2738893421875E-2</v>
-      </c>
-      <c r="G56" s="8">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8">
-        <v>0.11525278076562499</v>
-      </c>
-      <c r="I56" s="8">
+      <c r="B56">
+        <v>4.2119733399999908E-2</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0.18128662500000001</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>2.0382229474999999E-2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.18440444922499999</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
     </row>
@@ -18991,28 +18990,28 @@
       <c r="A57" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B57" s="8">
-        <v>2.1519453125000001E-2</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0.11231582031249999</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
-        <v>1.2460882562499999E-2</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0.11407786621875</v>
-      </c>
-      <c r="I57" s="8">
+      <c r="B57">
+        <v>3.4431125E-2</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.17970531249999999</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1.9937412099999999E-2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.1825245859499999</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
     </row>
@@ -19020,28 +19019,28 @@
       <c r="A58" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B58" s="8">
-        <v>2.1881819453125E-2</v>
-      </c>
-      <c r="C58" s="8">
-        <v>0</v>
-      </c>
-      <c r="D58" s="8">
-        <v>0.1092229711875</v>
-      </c>
-      <c r="E58" s="8">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8">
-        <v>1.178488937500001E-2</v>
-      </c>
-      <c r="G58" s="8">
-        <v>0</v>
-      </c>
-      <c r="H58" s="8">
-        <v>0.112902951671875</v>
-      </c>
-      <c r="I58" s="8">
+      <c r="B58">
+        <v>3.5010911124999988E-2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0.17475675390000009</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1.8855823000000011E-2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.18064472267500001</v>
+      </c>
+      <c r="I58">
         <v>0</v>
       </c>
     </row>
@@ -19049,28 +19048,28 @@
       <c r="A59" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B59" s="8">
-        <v>2.2244185781249998E-2</v>
-      </c>
-      <c r="C59" s="8">
-        <v>0</v>
-      </c>
-      <c r="D59" s="8">
-        <v>0.1061301220625</v>
-      </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>1.110889618750001E-2</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0.111728037125</v>
-      </c>
-      <c r="I59" s="8">
+      <c r="B59">
+        <v>3.5590697249999997E-2</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0.16980819529999999</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1.7774233900000009E-2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.1787648594</v>
+      </c>
+      <c r="I59">
         <v>0</v>
       </c>
     </row>
@@ -19078,28 +19077,28 @@
       <c r="A60" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B60" s="8">
-        <v>2.260655210937499E-2</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0.1030372729375001</v>
-      </c>
-      <c r="E60" s="8">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>1.0432903000000019E-2</v>
-      </c>
-      <c r="G60" s="8">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8">
-        <v>0.110384125984375</v>
-      </c>
-      <c r="I60" s="8">
+      <c r="B60">
+        <v>3.6170483374999993E-2</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0.16485963670000009</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1.6692644800000021E-2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.176614601575</v>
+      </c>
+      <c r="I60">
         <v>0</v>
       </c>
     </row>
@@ -19107,28 +19106,28 @@
       <c r="A61" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B61" s="8">
-        <v>2.2968918437499989E-2</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0</v>
-      </c>
-      <c r="D61" s="8">
-        <v>9.9944423812500099E-2</v>
-      </c>
-      <c r="E61" s="8">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>9.7569098125000232E-3</v>
-      </c>
-      <c r="G61" s="8">
-        <v>0</v>
-      </c>
-      <c r="H61" s="8">
-        <v>0.10904021484375</v>
-      </c>
-      <c r="I61" s="8">
+      <c r="B61">
+        <v>3.6750269499999981E-2</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0.15991107810000019</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1.5611055700000039E-2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.17446434375</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
     </row>
@@ -19136,28 +19135,28 @@
       <c r="A62" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B62" s="8">
-        <v>2.0814997234375021E-2</v>
-      </c>
-      <c r="C62" s="8">
-        <v>0</v>
-      </c>
-      <c r="D62" s="8">
-        <v>9.8541750484375024E-2</v>
-      </c>
-      <c r="E62" s="8">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8">
-        <v>8.6102595625000139E-3</v>
-      </c>
-      <c r="G62" s="8">
-        <v>0</v>
-      </c>
-      <c r="H62" s="8">
-        <v>0.107696303703125</v>
-      </c>
-      <c r="I62" s="8">
+      <c r="B62">
+        <v>3.3303995575000037E-2</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.157666800775</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1.377641530000002E-2</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.17231408592500011</v>
+      </c>
+      <c r="I62">
         <v>0</v>
       </c>
     </row>
@@ -19165,28 +19164,28 @@
       <c r="A63" s="1">
         <v>0.625</v>
       </c>
-      <c r="B63" s="8">
-        <v>1.8661076031250001E-2</v>
-      </c>
-      <c r="C63" s="8">
-        <v>0</v>
-      </c>
-      <c r="D63" s="8">
-        <v>9.7139077156250017E-2</v>
-      </c>
-      <c r="E63" s="8">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8">
-        <v>7.4636093125000002E-3</v>
-      </c>
-      <c r="G63" s="8">
-        <v>0</v>
-      </c>
-      <c r="H63" s="8">
-        <v>0.10635239256250011</v>
-      </c>
-      <c r="I63" s="8">
+      <c r="B63">
+        <v>2.9857721649999999E-2</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0.15542252344999999</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1.19417749E-2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0.17016382810000011</v>
+      </c>
+      <c r="I63">
         <v>0</v>
       </c>
     </row>
@@ -19194,28 +19193,28 @@
       <c r="A64" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B64" s="8">
-        <v>1.6507154828124981E-2</v>
-      </c>
-      <c r="C64" s="8">
-        <v>0</v>
-      </c>
-      <c r="D64" s="8">
-        <v>9.5736403828124997E-2</v>
-      </c>
-      <c r="E64" s="8">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
-        <v>6.3169590624999874E-3</v>
-      </c>
-      <c r="G64" s="8">
-        <v>0</v>
-      </c>
-      <c r="H64" s="8">
-        <v>0.1015229662968751</v>
-      </c>
-      <c r="I64" s="8">
+      <c r="B64">
+        <v>2.641144772499996E-2</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0.153178246125</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1.0107134499999979E-2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.16243674607500011</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
     </row>
@@ -19223,28 +19222,28 @@
       <c r="A65" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B65" s="8">
-        <v>1.435323362499989E-2</v>
-      </c>
-      <c r="C65" s="8">
-        <v>0</v>
-      </c>
-      <c r="D65" s="8">
-        <v>9.4333730499999865E-2</v>
-      </c>
-      <c r="E65" s="8">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
-        <v>5.1703088124999581E-3</v>
-      </c>
-      <c r="G65" s="8">
-        <v>0</v>
-      </c>
-      <c r="H65" s="8">
-        <v>9.6693540031250011E-2</v>
-      </c>
-      <c r="I65" s="8">
+      <c r="B65">
+        <v>2.2965173799999829E-2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0.15093396879999979</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>8.2724940999999337E-3</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.15470966405</v>
+      </c>
+      <c r="I65">
         <v>0</v>
       </c>
     </row>
@@ -19252,28 +19251,28 @@
       <c r="A66" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B66" s="8">
-        <v>1.104722767187493E-2</v>
-      </c>
-      <c r="C66" s="8">
-        <v>0</v>
-      </c>
-      <c r="D66" s="8">
-        <v>8.9795056171874901E-2</v>
-      </c>
-      <c r="E66" s="8">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8">
-        <v>3.8777316093749729E-3</v>
-      </c>
-      <c r="G66" s="8">
-        <v>0</v>
-      </c>
-      <c r="H66" s="8">
-        <v>9.1864113765624963E-2</v>
-      </c>
-      <c r="I66" s="8">
+      <c r="B66">
+        <v>1.7675564274999878E-2</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0.1436720898749998</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>6.2043705749999564E-3</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.14698258202499989</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
     </row>
@@ -19281,28 +19280,28 @@
       <c r="A67" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B67" s="8">
-        <v>7.7412217187499653E-3</v>
-      </c>
-      <c r="C67" s="8">
-        <v>0</v>
-      </c>
-      <c r="D67" s="8">
-        <v>8.5256381843749965E-2</v>
-      </c>
-      <c r="E67" s="8">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
-        <v>2.585154406249986E-3</v>
-      </c>
-      <c r="G67" s="8">
-        <v>0</v>
-      </c>
-      <c r="H67" s="8">
-        <v>8.703468749999986E-2</v>
-      </c>
-      <c r="I67" s="8">
+      <c r="B67">
+        <v>1.238595474999994E-2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0.13641021094999989</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>4.1362470499999773E-3</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0.13925549999999981</v>
+      </c>
+      <c r="I67">
         <v>0</v>
       </c>
     </row>
@@ -19310,28 +19309,28 @@
       <c r="A68" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B68" s="8">
-        <v>4.4352157656249664E-3</v>
-      </c>
-      <c r="C68" s="8">
-        <v>0</v>
-      </c>
-      <c r="D68" s="8">
-        <v>8.0717707515624945E-2</v>
-      </c>
-      <c r="E68" s="8">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8">
-        <v>1.2925772031249861E-3</v>
-      </c>
-      <c r="G68" s="8">
-        <v>0</v>
-      </c>
-      <c r="H68" s="8">
-        <v>8.2602087406249913E-2</v>
-      </c>
-      <c r="I68" s="8">
+      <c r="B68">
+        <v>7.0963452249999453E-3</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0.1291483320249999</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>2.0681235249999778E-3</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0.13216333984999981</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
     </row>
@@ -19339,28 +19338,28 @@
       <c r="A69" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B69" s="8">
-        <v>1.1292098124999999E-3</v>
-      </c>
-      <c r="C69" s="8">
-        <v>0</v>
-      </c>
-      <c r="D69" s="8">
-        <v>7.6179033187499995E-2</v>
-      </c>
-      <c r="E69" s="8">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8">
-        <v>0</v>
-      </c>
-      <c r="G69" s="8">
-        <v>0</v>
-      </c>
-      <c r="H69" s="8">
-        <v>7.8169487312499952E-2</v>
-      </c>
-      <c r="I69" s="8">
+      <c r="B69">
+        <v>1.8067357000000001E-3</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0.1218864531</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0.1250711796999999</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
     </row>
@@ -19368,28 +19367,28 @@
       <c r="A70" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B70" s="8">
-        <v>8.46907359375003E-4</v>
-      </c>
-      <c r="C70" s="8">
-        <v>0</v>
-      </c>
-      <c r="D70" s="8">
-        <v>6.994394407812507E-2</v>
-      </c>
-      <c r="E70" s="8">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8">
-        <v>0</v>
-      </c>
-      <c r="H70" s="8">
-        <v>7.3736887218749964E-2</v>
-      </c>
-      <c r="I70" s="8">
+      <c r="B70">
+        <v>1.3550517750000051E-3</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.1119103105250001</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.1179790195499999</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
     </row>
@@ -19397,28 +19396,28 @@
       <c r="A71" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B71" s="8">
-        <v>5.6460490625000301E-4</v>
-      </c>
-      <c r="C71" s="8">
-        <v>0</v>
-      </c>
-      <c r="D71" s="8">
-        <v>6.3708854968750062E-2</v>
-      </c>
-      <c r="E71" s="8">
-        <v>0</v>
-      </c>
-      <c r="F71" s="8">
-        <v>0</v>
-      </c>
-      <c r="G71" s="8">
-        <v>0</v>
-      </c>
-      <c r="H71" s="8">
-        <v>6.9304287125000003E-2</v>
-      </c>
-      <c r="I71" s="8">
+      <c r="B71">
+        <v>9.0336785000000482E-4</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0.1019341679500001</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0.1108868594</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
     </row>
@@ -19426,28 +19425,28 @@
       <c r="A72" s="1">
         <v>0.71875</v>
       </c>
-      <c r="B72" s="8">
-        <v>2.82302453125006E-4</v>
-      </c>
-      <c r="C72" s="8">
-        <v>0</v>
-      </c>
-      <c r="D72" s="8">
-        <v>5.7473765859375137E-2</v>
-      </c>
-      <c r="E72" s="8">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8">
-        <v>0</v>
-      </c>
-      <c r="G72" s="8">
-        <v>0</v>
-      </c>
-      <c r="H72" s="8">
-        <v>6.3710616468750064E-2</v>
-      </c>
-      <c r="I72" s="8">
+      <c r="B72">
+        <v>4.5168392500000951E-4</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>9.195802537500021E-2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.10193698635000011</v>
+      </c>
+      <c r="I72">
         <v>0</v>
       </c>
     </row>
@@ -19455,28 +19454,28 @@
       <c r="A73" s="1">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B73" s="8">
-        <v>9.0205620750793972E-18</v>
-      </c>
-      <c r="C73" s="8">
-        <v>0</v>
-      </c>
-      <c r="D73" s="8">
-        <v>5.1238676750000212E-2</v>
-      </c>
-      <c r="E73" s="8">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
-        <v>0</v>
-      </c>
-      <c r="G73" s="8">
-        <v>0</v>
-      </c>
-      <c r="H73" s="8">
-        <v>5.8116945812500057E-2</v>
-      </c>
-      <c r="I73" s="8">
+      <c r="B73">
+        <v>1.4432899320127039E-17</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>8.1981882800000336E-2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>9.2987113300000077E-2</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
     </row>
@@ -19484,28 +19483,28 @@
       <c r="A74" s="1">
         <v>0.73958333333333304</v>
       </c>
-      <c r="B74" s="8">
-        <v>0</v>
-      </c>
-      <c r="C74" s="8">
-        <v>0</v>
-      </c>
-      <c r="D74" s="8">
-        <v>4.5221422718750057E-2</v>
-      </c>
-      <c r="E74" s="8">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8">
-        <v>0</v>
-      </c>
-      <c r="G74" s="8">
-        <v>0</v>
-      </c>
-      <c r="H74" s="8">
-        <v>5.2523275156250111E-2</v>
-      </c>
-      <c r="I74" s="8">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>7.2354276350000093E-2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>8.4037240250000173E-2</v>
+      </c>
+      <c r="I74">
         <v>0</v>
       </c>
     </row>
@@ -19513,28 +19512,28 @@
       <c r="A75" s="1">
         <v>0.75</v>
       </c>
-      <c r="B75" s="8">
-        <v>0</v>
-      </c>
-      <c r="C75" s="8">
-        <v>0</v>
-      </c>
-      <c r="D75" s="8">
-        <v>3.9204168687500013E-2</v>
-      </c>
-      <c r="E75" s="8">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
-        <v>0</v>
-      </c>
-      <c r="G75" s="8">
-        <v>0</v>
-      </c>
-      <c r="H75" s="8">
-        <v>4.6929604500000173E-2</v>
-      </c>
-      <c r="I75" s="8">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>6.2726669900000004E-2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>7.5087367200000268E-2</v>
+      </c>
+      <c r="I75">
         <v>0</v>
       </c>
     </row>
@@ -19542,28 +19541,28 @@
       <c r="A76" s="1">
         <v>0.76041666666666696</v>
       </c>
-      <c r="B76" s="8">
-        <v>0</v>
-      </c>
-      <c r="C76" s="8">
-        <v>0</v>
-      </c>
-      <c r="D76" s="8">
-        <v>3.3186914656249941E-2</v>
-      </c>
-      <c r="E76" s="8">
-        <v>0</v>
-      </c>
-      <c r="F76" s="8">
-        <v>0</v>
-      </c>
-      <c r="G76" s="8">
-        <v>0</v>
-      </c>
-      <c r="H76" s="8">
-        <v>4.080471557812506E-2</v>
-      </c>
-      <c r="I76" s="8">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>5.30990634499999E-2</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>6.5287544925000079E-2</v>
+      </c>
+      <c r="I76">
         <v>0</v>
       </c>
     </row>
@@ -19571,28 +19570,28 @@
       <c r="A77" s="1">
         <v>0.77083333333333304</v>
       </c>
-      <c r="B77" s="8">
-        <v>0</v>
-      </c>
-      <c r="C77" s="8">
-        <v>0</v>
-      </c>
-      <c r="D77" s="8">
-        <v>2.7169660624999859E-2</v>
-      </c>
-      <c r="E77" s="8">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
-        <v>0</v>
-      </c>
-      <c r="G77" s="8">
-        <v>0</v>
-      </c>
-      <c r="H77" s="8">
-        <v>3.4679826656250003E-2</v>
-      </c>
-      <c r="I77" s="8">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>4.3471456999999769E-2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>5.5487722649999988E-2</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
     </row>
@@ -19600,28 +19599,28 @@
       <c r="A78" s="1">
         <v>0.78125</v>
       </c>
-      <c r="B78" s="8">
-        <v>0</v>
-      </c>
-      <c r="C78" s="8">
-        <v>0</v>
-      </c>
-      <c r="D78" s="8">
-        <v>2.2585235421874902E-2</v>
-      </c>
-      <c r="E78" s="8">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8">
-        <v>0</v>
-      </c>
-      <c r="G78" s="8">
-        <v>0</v>
-      </c>
-      <c r="H78" s="8">
-        <v>2.8554937734374938E-2</v>
-      </c>
-      <c r="I78" s="8">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>3.6136376674999852E-2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>4.5687900374999903E-2</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
     </row>
@@ -19629,28 +19628,28 @@
       <c r="A79" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B79" s="8">
-        <v>0</v>
-      </c>
-      <c r="C79" s="8">
-        <v>0</v>
-      </c>
-      <c r="D79" s="8">
-        <v>1.8000810218749951E-2</v>
-      </c>
-      <c r="E79" s="8">
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
-        <v>0</v>
-      </c>
-      <c r="G79" s="8">
-        <v>0</v>
-      </c>
-      <c r="H79" s="8">
-        <v>2.2430048812499881E-2</v>
-      </c>
-      <c r="I79" s="8">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>2.8801296349999918E-2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>3.5888078099999797E-2</v>
+      </c>
+      <c r="I79">
         <v>0</v>
       </c>
     </row>
@@ -19658,28 +19657,28 @@
       <c r="A80" s="1">
         <v>0.80208333333333304</v>
       </c>
-      <c r="B80" s="8">
-        <v>0</v>
-      </c>
-      <c r="C80" s="8">
-        <v>0</v>
-      </c>
-      <c r="D80" s="8">
-        <v>1.341638501562495E-2</v>
-      </c>
-      <c r="E80" s="8">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8">
-        <v>0</v>
-      </c>
-      <c r="G80" s="8">
-        <v>0</v>
-      </c>
-      <c r="H80" s="8">
-        <v>1.8602497859374921E-2</v>
-      </c>
-      <c r="I80" s="8">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>2.1466216024999919E-2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>2.9763996574999872E-2</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
     </row>
@@ -19687,28 +19686,28 @@
       <c r="A81" s="1">
         <v>0.8125</v>
       </c>
-      <c r="B81" s="8">
-        <v>0</v>
-      </c>
-      <c r="C81" s="8">
-        <v>0</v>
-      </c>
-      <c r="D81" s="8">
-        <v>8.8319598125000016E-3</v>
-      </c>
-      <c r="E81" s="8">
-        <v>0</v>
-      </c>
-      <c r="F81" s="8">
-        <v>0</v>
-      </c>
-      <c r="G81" s="8">
-        <v>0</v>
-      </c>
-      <c r="H81" s="8">
-        <v>1.4774946906249959E-2</v>
-      </c>
-      <c r="I81" s="8">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1.41311357E-2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>2.3639915049999929E-2</v>
+      </c>
+      <c r="I81">
         <v>0</v>
       </c>
     </row>
@@ -19716,28 +19715,28 @@
       <c r="A82" s="1">
         <v>0.82291666666666696</v>
       </c>
-      <c r="B82" s="8">
-        <v>0</v>
-      </c>
-      <c r="C82" s="8">
-        <v>0</v>
-      </c>
-      <c r="D82" s="8">
-        <v>6.6239698593750264E-3</v>
-      </c>
-      <c r="E82" s="8">
-        <v>0</v>
-      </c>
-      <c r="F82" s="8">
-        <v>0</v>
-      </c>
-      <c r="G82" s="8">
-        <v>0</v>
-      </c>
-      <c r="H82" s="8">
-        <v>1.094739595312496E-2</v>
-      </c>
-      <c r="I82" s="8">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1.059835177500004E-2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1.751583352499993E-2</v>
+      </c>
+      <c r="I82">
         <v>0</v>
       </c>
     </row>
@@ -19745,28 +19744,28 @@
       <c r="A83" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B83" s="8">
-        <v>0</v>
-      </c>
-      <c r="C83" s="8">
-        <v>0</v>
-      </c>
-      <c r="D83" s="8">
-        <v>4.4159799062500234E-3</v>
-      </c>
-      <c r="E83" s="8">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8">
-        <v>0</v>
-      </c>
-      <c r="G83" s="8">
-        <v>0</v>
-      </c>
-      <c r="H83" s="8">
-        <v>7.1198450000000014E-3</v>
-      </c>
-      <c r="I83" s="8">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>7.0655678500000374E-3</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1.1391752E-2</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
     </row>
@@ -19774,28 +19773,28 @@
       <c r="A84" s="1">
         <v>0.84375</v>
       </c>
-      <c r="B84" s="8">
-        <v>0</v>
-      </c>
-      <c r="C84" s="8">
-        <v>0</v>
-      </c>
-      <c r="D84" s="8">
-        <v>2.2079899531250468E-3</v>
-      </c>
-      <c r="E84" s="8">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8">
-        <v>0</v>
-      </c>
-      <c r="G84" s="8">
-        <v>0</v>
-      </c>
-      <c r="H84" s="8">
-        <v>5.3398837500000188E-3</v>
-      </c>
-      <c r="I84" s="8">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>3.5327839250000751E-3</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>8.5438140000000298E-3</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
     </row>
@@ -19803,28 +19802,28 @@
       <c r="A85" s="1">
         <v>0.85416666666666696</v>
       </c>
-      <c r="B85" s="8">
-        <v>0</v>
-      </c>
-      <c r="C85" s="8">
-        <v>0</v>
-      </c>
-      <c r="D85" s="8">
-        <v>6.9944050551384863E-17</v>
-      </c>
-      <c r="E85" s="8">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8">
-        <v>0</v>
-      </c>
-      <c r="G85" s="8">
-        <v>0</v>
-      </c>
-      <c r="H85" s="8">
-        <v>3.5599225000000189E-3</v>
-      </c>
-      <c r="I85" s="8">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1.119104808822158E-16</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>5.6958760000000302E-3</v>
+      </c>
+      <c r="I85">
         <v>0</v>
       </c>
     </row>
@@ -19832,28 +19831,28 @@
       <c r="A86" s="1">
         <v>0.86458333333333304</v>
       </c>
-      <c r="B86" s="8">
-        <v>0</v>
-      </c>
-      <c r="C86" s="8">
-        <v>0</v>
-      </c>
-      <c r="D86" s="8">
-        <v>0</v>
-      </c>
-      <c r="E86" s="8">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8">
-        <v>0</v>
-      </c>
-      <c r="G86" s="8">
-        <v>0</v>
-      </c>
-      <c r="H86" s="8">
-        <v>1.7799612500000381E-3</v>
-      </c>
-      <c r="I86" s="8">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>2.847938000000062E-3</v>
+      </c>
+      <c r="I86">
         <v>0</v>
       </c>
     </row>
@@ -19861,28 +19860,28 @@
       <c r="A87" s="1">
         <v>0.875</v>
       </c>
-      <c r="B87" s="8">
-        <v>0</v>
-      </c>
-      <c r="C87" s="8">
-        <v>0</v>
-      </c>
-      <c r="D87" s="8">
-        <v>0</v>
-      </c>
-      <c r="E87" s="8">
-        <v>0</v>
-      </c>
-      <c r="F87" s="8">
-        <v>0</v>
-      </c>
-      <c r="G87" s="8">
-        <v>0</v>
-      </c>
-      <c r="H87" s="8">
-        <v>5.7731597280508142E-17</v>
-      </c>
-      <c r="I87" s="8">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>9.237055564881302E-17</v>
+      </c>
+      <c r="I87">
         <v>0</v>
       </c>
     </row>
@@ -19890,28 +19889,28 @@
       <c r="A88" s="1">
         <v>0.88541666666666696</v>
       </c>
-      <c r="B88" s="8">
-        <v>0</v>
-      </c>
-      <c r="C88" s="8">
-        <v>0</v>
-      </c>
-      <c r="D88" s="8">
-        <v>0</v>
-      </c>
-      <c r="E88" s="8">
-        <v>0</v>
-      </c>
-      <c r="F88" s="8">
-        <v>0</v>
-      </c>
-      <c r="G88" s="8">
-        <v>0</v>
-      </c>
-      <c r="H88" s="8">
-        <v>0</v>
-      </c>
-      <c r="I88" s="8">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
     </row>
@@ -19919,28 +19918,28 @@
       <c r="A89" s="1">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B89" s="8">
-        <v>0</v>
-      </c>
-      <c r="C89" s="8">
-        <v>0</v>
-      </c>
-      <c r="D89" s="8">
-        <v>0</v>
-      </c>
-      <c r="E89" s="8">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8">
-        <v>0</v>
-      </c>
-      <c r="G89" s="8">
-        <v>0</v>
-      </c>
-      <c r="H89" s="8">
-        <v>0</v>
-      </c>
-      <c r="I89" s="8">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
     </row>
@@ -19948,28 +19947,28 @@
       <c r="A90" s="1">
         <v>0.90625</v>
       </c>
-      <c r="B90" s="8">
-        <v>0</v>
-      </c>
-      <c r="C90" s="8">
-        <v>0</v>
-      </c>
-      <c r="D90" s="8">
-        <v>0</v>
-      </c>
-      <c r="E90" s="8">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8">
-        <v>0</v>
-      </c>
-      <c r="G90" s="8">
-        <v>0</v>
-      </c>
-      <c r="H90" s="8">
-        <v>0</v>
-      </c>
-      <c r="I90" s="8">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>0</v>
       </c>
     </row>
@@ -19977,28 +19976,28 @@
       <c r="A91" s="1">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B91" s="8">
-        <v>0</v>
-      </c>
-      <c r="C91" s="8">
-        <v>0</v>
-      </c>
-      <c r="D91" s="8">
-        <v>0</v>
-      </c>
-      <c r="E91" s="8">
-        <v>0</v>
-      </c>
-      <c r="F91" s="8">
-        <v>0</v>
-      </c>
-      <c r="G91" s="8">
-        <v>0</v>
-      </c>
-      <c r="H91" s="8">
-        <v>0</v>
-      </c>
-      <c r="I91" s="8">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
         <v>0</v>
       </c>
     </row>
@@ -20006,28 +20005,28 @@
       <c r="A92" s="1">
         <v>0.92708333333333304</v>
       </c>
-      <c r="B92" s="8">
-        <v>0</v>
-      </c>
-      <c r="C92" s="8">
-        <v>0</v>
-      </c>
-      <c r="D92" s="8">
-        <v>0</v>
-      </c>
-      <c r="E92" s="8">
-        <v>0</v>
-      </c>
-      <c r="F92" s="8">
-        <v>0</v>
-      </c>
-      <c r="G92" s="8">
-        <v>0</v>
-      </c>
-      <c r="H92" s="8">
-        <v>0</v>
-      </c>
-      <c r="I92" s="8">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
         <v>0</v>
       </c>
     </row>
@@ -20035,28 +20034,28 @@
       <c r="A93" s="1">
         <v>0.9375</v>
       </c>
-      <c r="B93" s="8">
-        <v>0</v>
-      </c>
-      <c r="C93" s="8">
-        <v>0</v>
-      </c>
-      <c r="D93" s="8">
-        <v>0</v>
-      </c>
-      <c r="E93" s="8">
-        <v>0</v>
-      </c>
-      <c r="F93" s="8">
-        <v>0</v>
-      </c>
-      <c r="G93" s="8">
-        <v>0</v>
-      </c>
-      <c r="H93" s="8">
-        <v>0</v>
-      </c>
-      <c r="I93" s="8">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
     </row>
@@ -20064,28 +20063,28 @@
       <c r="A94" s="1">
         <v>0.94791666666666696</v>
       </c>
-      <c r="B94" s="8">
-        <v>0</v>
-      </c>
-      <c r="C94" s="8">
-        <v>0</v>
-      </c>
-      <c r="D94" s="8">
-        <v>0</v>
-      </c>
-      <c r="E94" s="8">
-        <v>0</v>
-      </c>
-      <c r="F94" s="8">
-        <v>0</v>
-      </c>
-      <c r="G94" s="8">
-        <v>0</v>
-      </c>
-      <c r="H94" s="8">
-        <v>0</v>
-      </c>
-      <c r="I94" s="8">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
     </row>
@@ -20093,28 +20092,28 @@
       <c r="A95" s="1">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B95" s="8">
-        <v>0</v>
-      </c>
-      <c r="C95" s="8">
-        <v>0</v>
-      </c>
-      <c r="D95" s="8">
-        <v>0</v>
-      </c>
-      <c r="E95" s="8">
-        <v>0</v>
-      </c>
-      <c r="F95" s="8">
-        <v>0</v>
-      </c>
-      <c r="G95" s="8">
-        <v>0</v>
-      </c>
-      <c r="H95" s="8">
-        <v>0</v>
-      </c>
-      <c r="I95" s="8">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
     </row>
@@ -20122,28 +20121,28 @@
       <c r="A96" s="1">
         <v>0.96875</v>
       </c>
-      <c r="B96" s="8">
-        <v>0</v>
-      </c>
-      <c r="C96" s="8">
-        <v>0</v>
-      </c>
-      <c r="D96" s="8">
-        <v>0</v>
-      </c>
-      <c r="E96" s="8">
-        <v>0</v>
-      </c>
-      <c r="F96" s="8">
-        <v>0</v>
-      </c>
-      <c r="G96" s="8">
-        <v>0</v>
-      </c>
-      <c r="H96" s="8">
-        <v>0</v>
-      </c>
-      <c r="I96" s="8">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>0</v>
       </c>
     </row>
@@ -20151,28 +20150,28 @@
       <c r="A97" s="1">
         <v>0.97916666666666696</v>
       </c>
-      <c r="B97" s="8">
-        <v>0</v>
-      </c>
-      <c r="C97" s="8">
-        <v>0</v>
-      </c>
-      <c r="D97" s="8">
-        <v>0</v>
-      </c>
-      <c r="E97" s="8">
-        <v>0</v>
-      </c>
-      <c r="F97" s="8">
-        <v>0</v>
-      </c>
-      <c r="G97" s="8">
-        <v>0</v>
-      </c>
-      <c r="H97" s="8">
-        <v>0</v>
-      </c>
-      <c r="I97" s="8">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
     </row>
@@ -20180,28 +20179,28 @@
       <c r="A98" s="1">
         <v>0.98958333333333304</v>
       </c>
-      <c r="B98" s="8">
-        <v>0</v>
-      </c>
-      <c r="C98" s="8">
-        <v>0</v>
-      </c>
-      <c r="D98" s="8">
-        <v>0</v>
-      </c>
-      <c r="E98" s="8">
-        <v>0</v>
-      </c>
-      <c r="F98" s="8">
-        <v>0</v>
-      </c>
-      <c r="G98" s="8">
-        <v>0</v>
-      </c>
-      <c r="H98" s="8">
-        <v>0</v>
-      </c>
-      <c r="I98" s="8">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
     </row>
